--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PresidentID</t>
+  </si>
+  <si>
+    <t>PresidentName</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>GuildAD</t>
+  </si>
+  <si>
+    <t>GuildDesc</t>
+  </si>
+  <si>
+    <t>GuildMoney</t>
+  </si>
+  <si>
+    <t>GuildLevel</t>
+  </si>
+  <si>
+    <t>GuildContinueDay</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,50 +77,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,20 +99,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,66 +410,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="F9" s="4"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -54,13 +57,62 @@
   </si>
   <si>
     <t>GuildContinueDay</t>
+  </si>
+  <si>
+    <t>GuilID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuilIDIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildMemeberCount</t>
+  </si>
+  <si>
+    <t>GuildMemeberMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildHonor</t>
+  </si>
+  <si>
+    <t>GuildCreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildCreateter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DismissTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitAD</t>
+  </si>
+  <si>
+    <t>RecruitLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoRecruit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +127,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,16 +164,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,9 +522,14 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,6 +556,45 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -60,71 +60,371 @@
   </si>
   <si>
     <t>GuilID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuilIDIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildMemeberCount</t>
   </si>
   <si>
     <t>GuildMemeberMaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildHonor</t>
   </si>
   <si>
     <t>GuildCreateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildCreateter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuildStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DismissTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RecruitAD</t>
   </si>
   <si>
     <t>RecruitLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingWarResource</t>
   </si>
   <si>
     <t>AutoRecruit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypServer</t>
+  </si>
+  <si>
+    <t>EctypID</t>
+  </si>
+  <si>
+    <t>EctypIDGroup</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>工会名</t>
+  </si>
+  <si>
+    <t>会长ID</t>
+  </si>
+  <si>
+    <t>会长名</t>
+  </si>
+  <si>
+    <t>公会排名</t>
+  </si>
+  <si>
+    <t>工会公告</t>
+  </si>
+  <si>
+    <t>工会描述</t>
+  </si>
+  <si>
+    <t>工会财富</t>
+  </si>
+  <si>
+    <t>工会等级</t>
+  </si>
+  <si>
+    <t>工会霸占排行榜天数</t>
+  </si>
+  <si>
+    <t>工会ID</t>
+  </si>
+  <si>
+    <t>公会头像</t>
+  </si>
+  <si>
+    <t>成员数量(增加个字段，不然遍历Record太麻烦)</t>
+  </si>
+  <si>
+    <t>成员最大数量</t>
+  </si>
+  <si>
+    <t>公会荣誉</t>
+  </si>
+  <si>
+    <t>公会创建时间</t>
+  </si>
+  <si>
+    <t>公会创始人</t>
+  </si>
+  <si>
+    <t>公会经验</t>
+  </si>
+  <si>
+    <t>公会状态，正常状态，申请解散状态</t>
+  </si>
+  <si>
+    <t>申请解散时间</t>
+  </si>
+  <si>
+    <t>招募公告</t>
+  </si>
+  <si>
+    <t>招募等级限制</t>
+  </si>
+  <si>
+    <t>获得的战役资源</t>
+  </si>
+  <si>
+    <t>自动招募</t>
+  </si>
+  <si>
+    <t>工会副本所在的服</t>
+  </si>
+  <si>
+    <t>工会副本ID</t>
+  </si>
+  <si>
+    <t>工会副本所在的曾</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>SaveInterval</t>
+  </si>
+  <si>
+    <t>RelationValue</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>GuildBoss</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>guild</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ameID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oinTime</t>
+    </r>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>AllContribution</t>
+  </si>
+  <si>
+    <t>GuildMemberList</t>
+  </si>
+  <si>
+    <t>GuildAppyList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ventID</t>
+    </r>
+  </si>
+  <si>
+    <t>EventTime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ontext</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Guild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+  </si>
+  <si>
+    <t>GuildHouse</t>
+  </si>
+  <si>
+    <t>GuildSkill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,25 +432,360 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,31 +793,346 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -193,54 +1143,17 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="NextLevelID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="NeedMoney" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="NeedLevel" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -286,7 +1199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +1234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,110 +1409,1265 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:27">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:27">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:27">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:27">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:27">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:27">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:27">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Y12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="12.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="19" width="16.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="12:25">
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="12:18">
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="12:22">
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="12:19">
+      <c r="L9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="12:19">
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="1:1048576">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW()+1,4)-2&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4 G6 G8 G10 G12 G13:G1048576 D1:F2 D3:F4 D5:F6 D7:F8 D9:F10 D13:F1048576 D11:F12">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -415,12 +415,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +433,36 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -450,36 +480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -488,53 +488,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -550,14 +503,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,12 +549,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -600,6 +623,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -612,6 +641,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,37 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,126 +773,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -794,11 +817,101 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,13 +931,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,41 +994,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,152 +1009,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,19 +1164,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1256,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1138,10 +1265,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1417,8 +1541,8 @@
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1438,584 +1562,584 @@
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:27">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:27">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:27">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:27">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="L2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="V2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="Y2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:27">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:27">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6" t="b">
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:27">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:27">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="6" t="b">
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:27">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:27">
+      <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6" t="b">
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:27">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="4" customFormat="1" spans="1:27">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6" t="b">
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:27">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:27">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2031,8 +2155,8 @@
   <sheetPr/>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2144,10 +2268,10 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -2188,7 +2312,7 @@
       <c r="O3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2203,24 +2327,24 @@
       <c r="T3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="1">
@@ -2247,10 +2371,10 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -2347,10 +2471,10 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2400,13 +2524,13 @@
       <c r="S7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2438,10 +2562,10 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2474,7 +2598,7 @@
       <c r="U8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2532,10 +2656,10 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2617,10 +2741,10 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2655,13 +2779,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4 G6 G8 G10 G12 G13:G1048576 D1:F2 D3:F4 D5:F6 D7:F8 D9:F10 D13:F1048576 D11:F12">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P7 L1:L2 L3:L4 L5:L6 L9:L10 L11:L12 L13:L1048576 L7:O8 Q7:S8">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T7 M1:M2 M3:M4 M5:M6 M9:M10 M11:M12 M13:M1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2 B3:C4 B5:C6 B7:C8 B9:C10 B13:C1048576 B11:C12">
       <formula1>0</formula1>
     </dataValidation>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>Id</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -297,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -326,9 +329,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,8 +395,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,15 +443,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,81 +466,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -491,13 +494,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,97 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,74 +678,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -724,6 +727,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -769,8 +785,47 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,45 +841,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,11 +871,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,137 +921,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,16 +1067,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1390,13 +1425,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -1414,7 +1449,7 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:27">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1474,10 +1509,10 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -1497,7 +1532,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:27">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1580,7 +1615,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:27">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1663,7 +1698,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:27">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1746,7 +1781,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:27">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1829,7 +1864,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:27">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1911,90 +1946,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:27">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:27">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:27">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="Q8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="R8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="S8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="T8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="U8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="V8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="W8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="X8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Y8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="Z8" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="AA8" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AA7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2006,7 +2130,7 @@
   <sheetPr/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD60"/>
     </sheetView>
   </sheetViews>
@@ -2017,12 +2141,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
@@ -2030,7 +2154,7 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2">
         <v>8</v>
@@ -2070,28 +2194,28 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:8">
@@ -2122,10 +2246,10 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
@@ -2133,12 +2257,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2">
         <v>50</v>
@@ -2146,7 +2270,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -2186,46 +2310,46 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:14">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:14">
@@ -2274,10 +2398,10 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
@@ -2285,12 +2409,12 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -2298,7 +2422,7 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -2338,25 +2462,25 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:7">
@@ -2384,10 +2508,10 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:2">
@@ -2395,12 +2519,12 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2">
         <v>50</v>
@@ -2408,7 +2532,7 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2">
         <v>11</v>
@@ -2448,37 +2572,37 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:11">
@@ -2518,10 +2642,10 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:2">
@@ -2529,12 +2653,12 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
         <v>50</v>
@@ -2542,7 +2666,7 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -2582,28 +2706,28 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:8">
@@ -2634,10 +2758,10 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:2">
@@ -2645,12 +2769,12 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
@@ -2658,7 +2782,7 @@
     </row>
     <row r="53" s="2" customFormat="1" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2">
         <v>8</v>
@@ -2698,28 +2822,28 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:8">
@@ -2750,24 +2874,24 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 A12:A13 A22:A23 A32:A33 A42:A43 A52:A53 B12:B13 B22:B23 B32:B33 B42:B43 B52:B53 C1:C7 C11:C17 C20:C27 C30:C37 C40:C60 A2:B3">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8 L9 L10 A38:D38 E38 F38:H38 A39:D39 F39:H39 A8:A9 A18:A19 A28:A29 A48:A49 A58:A59 B48:B49 L1:L7 L11:L17 L20:L60">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M8 M9 M10 I38 B8:B9 B18:B19 B28:B29 M1:M7 M11:M17 M20:M60"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 A12:A13 A22:A23 A32:A33 A42:A43 A52:A53 B12:B13 B22:B23 B32:B33 B42:B43 B52:B53 C1:C7 C11:C17 C20:C27 C30:C37 C40:C60 A2:B3">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M8 M9 M10 I38 B8:B9 B18:B19 B28:B29 M1:M7 M11:M17 M20:M60"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -13,20 +18,28 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -298,18 +311,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +324,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -328,152 +335,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,194 +355,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -803,251 +480,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,61 +524,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1157,12 +544,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1423,32 +815,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="22.75" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="16.125" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:27">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +1006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:27">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1697,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:27">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:27">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1863,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:27">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:27">
+    <row r="7" spans="1:27" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2029,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:27">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -2119,24 +1511,22 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD60"/>
+      <selection sqref="A1:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +1534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +1542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -2160,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -2168,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2176,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -2192,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -2218,7 +1608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2244,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +1642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +1650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +1658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2276,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2284,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2300,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2308,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:14">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +1742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:14">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2396,7 +1786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2404,7 +1794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:2">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +1802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:2">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -2420,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:2">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2428,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2436,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:2">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -2452,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:2">
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -2460,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:7">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -2483,7 +1873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:7">
+    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2506,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:2">
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2514,7 +1904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:2">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +1912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:2">
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -2530,7 +1920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:2">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:2">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2546,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:2">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2554,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:2">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2562,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:2">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2570,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:11">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -2605,7 +1995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:11">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2640,7 +2030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:2">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:2">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:2">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -2664,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:2">
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:2">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2680,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:2">
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2688,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:2">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:2">
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2704,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:8">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2730,7 +2120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:8">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>29</v>
       </c>
@@ -2756,7 +2146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:2">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -2764,7 +2154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:2">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:2">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -2780,7 +2170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:2">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2788,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:2">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>31</v>
       </c>
@@ -2796,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:2">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2804,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:2">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -2812,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:2">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:8">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2846,7 +2236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:8">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2872,7 +2262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:2">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2893,7 +2283,6 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Id</t>
   </si>
@@ -306,17 +306,21 @@
   </si>
   <si>
     <t>GuildSkill</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,8 +328,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,6 +338,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,7 +535,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -553,6 +563,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -816,31 +829,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -923,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -1421,93 +1434,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Y9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AA7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AA8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1524,9 +1621,9 @@
       <selection sqref="A1:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1550,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1608,7 +1705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1666,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1698,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1742,7 +1839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1810,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1818,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1826,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1850,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1904,7 +2001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +2009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1920,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1928,7 +2025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +2092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2030,7 +2127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2038,7 +2135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -2054,7 +2151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2070,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2086,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +2217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
@@ -2154,7 +2251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +2267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2178,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -2202,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>34</v>
       </c>
@@ -2210,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2236,7 +2333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -2262,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
@@ -2271,6 +2368,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37">
       <formula1>"TRUE,FALSE"</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Guild.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>GuildSkill</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Upload</t>
@@ -831,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -1615,13 +1619,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1681,99 +1688,99 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="b">
         <v>1</v>
@@ -1781,7 +1788,7 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="b">
         <v>1</v>
@@ -1789,151 +1796,151 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="b">
         <v>1</v>
@@ -1941,117 +1948,117 @@
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="B30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="b">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B35" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B36" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="b">
         <v>0</v>
@@ -2059,325 +2066,373 @@
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="2" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="2" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B46" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="B48" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B49" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
+      </c>
+      <c r="B50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="2">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="B52" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="2">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="2" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="2" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B57" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 B17 B27 B37 B47 B57 A14:A16 A24:A26 A34:A36 A44:A46 A54:A56 B14:B16 B24:B26 B34:B36 B44:B46 B54:B56 G1:G7 G11:G17 G20:G27 G30:G37 G40:G60 A4:B6 D1:F7 D11:F17 D40:F60 D20:F27 D30:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B7:B8 D22:G30 D33:G41 A15:B17 A26:B28 A37:B39 A48:B50 A59:B61 B29:B30 A4:B6 D1:G8 B40:B41 D11:G19 B51:B52 D44:G66 B62:B63">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8 L9 L10 A38:D38 E38 F38:H38 A39:D39 F39:H39 A8:A9 A18:A19 A28:A29 A48:A49 A58:A59 B48:B49 L1:L7 L11:L17 L20:L60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E42 A42:D43 F42:H43 A9:A10 A20:A21 A31:A32 A64:A65 A53:B54 L1:L19 L22:L66">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M8 M9 M10 I38 B8:B9 B18:B19 B28:B29 M1:M7 M11:M17 M20:M60"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 A12:A13 A22:A23 A32:A33 A42:A43 A52:A53 B12:B13 B22:B23 B32:B33 B42:B43 B52:B53 C1:C7 C11:C17 C20:C27 C30:C37 C40:C60 A2:B3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="I42 B9:B10 B20:B21 B31:B32 M1:M19 M22:M66"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 A24:B25 A35:B36 A46:B47 A57:B58 C1:C8 A2:B3 C11:C19 C22:C30 C33:C41 C44:C66">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
